--- a/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
@@ -7,19 +7,21 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Times" sheetId="2" r:id="rId2"/>
+    <sheet name="Circuits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Circuits!$A$1:$B$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Times!$A$1:$C$85</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="97">
   <si>
     <t>Italian Grand Prix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +322,89 @@
   </si>
   <si>
     <t>European Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,6 +587,1321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="108"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="8"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Times!$A$2:$B$85</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="84"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>France</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Great Britain</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Great Britain</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Great Britain</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Japan</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Japan</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Germany</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Spain</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Great Britain</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Austria</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Austria</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>Italy</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1957</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1959</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1960</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1976</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1977</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1978</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1979</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1980</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1981</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1981</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1982</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1982</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1982</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1983</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1984</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1985</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1986</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1987</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>1988</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>1989</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>1990</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1991</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>1992</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1993</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>1994</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>1995</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>1996</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>1997</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>1998</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>1999</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2001</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2002</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2003</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2004</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2005</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2006</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2022</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2023</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2024</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2025</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2025</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2026</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2027</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2028</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2029</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2030</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2031</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2032</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$C$2:$C$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="118820864"/>
+        <c:axId val="118822400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="118820864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118822400"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="118822400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="118820864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="en-US"/>
+              <a:t>Circuits on </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>countries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Circuits!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Circuits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Circuits!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Great Britain</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Spain</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Austria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Circuits!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="97182464"/>
+        <c:axId val="97871744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97182464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97871744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97871744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97182464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Circuits on continents</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Circuits!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Circuits</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Circuits!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Europe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>North America</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Circuits!$B$13:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99140352"/>
+        <c:axId val="100778752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99140352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100778752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100778752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99140352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180973</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3399,26 +4799,1106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1957</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1959</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1960</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1976</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1977</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1978</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1979</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1980</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1981</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1982</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1983</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>1984</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>1985</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>1987</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>1988</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>1992</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>2031</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C85">
+    <sortState ref="A2:C85">
+      <sortCondition ref="A1:A85"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B3+B4+B5+B6+B7+B9</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3">
+        <f>B8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3">
+        <f>SUM(B2:B9)</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B9">
+    <sortState ref="A2:B9">
+      <sortCondition descending="1" ref="B1:B9"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Circuits!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Times!$A$1:$C$85</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="99">
   <si>
     <t>Italian Grand Prix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,14 @@
   </si>
   <si>
     <t>Continents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas Street Circuit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,6 +593,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1353,40 +1364,40 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,20 +1412,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="118820864"/>
-        <c:axId val="118822400"/>
+        <c:axId val="127462088"/>
+        <c:axId val="127462480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="118820864"/>
+        <c:axId val="127462088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118822400"/>
+        <c:crossAx val="127462480"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1422,7 +1434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118822400"/>
+        <c:axId val="127462480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,7 +1445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118820864"/>
+        <c:crossAx val="127462088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1555,7 +1567,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
@@ -1591,20 +1603,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97182464"/>
-        <c:axId val="97871744"/>
+        <c:axId val="127463264"/>
+        <c:axId val="127463656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97182464"/>
+        <c:axId val="127463264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97871744"/>
+        <c:crossAx val="127463656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97871744"/>
+        <c:axId val="127463656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97182464"/>
+        <c:crossAx val="127463264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1732,7 +1745,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -1750,20 +1763,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99140352"/>
-        <c:axId val="100778752"/>
+        <c:axId val="127464440"/>
+        <c:axId val="127464832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99140352"/>
+        <c:axId val="127464440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100778752"/>
+        <c:crossAx val="127464832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1771,7 +1785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100778752"/>
+        <c:axId val="127464832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99140352"/>
+        <c:crossAx val="127464440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1905,7 +1919,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1947,7 +1961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1982,7 +1996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2191,7 +2205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL171"/>
+  <dimension ref="A1:DL181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4426,251 +4440,251 @@
       <c r="E147" s="6"/>
     </row>
     <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B148" s="6">
+      <c r="A148" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B148" s="9">
         <v>2023</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B149" s="7">
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B150" s="7">
         <v>2023</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E149" s="7"/>
-    </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="E150" s="7"/>
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B151" s="4">
         <v>2024</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E150" s="4"/>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B152" s="6">
         <v>2024</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C152" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D152" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B152" s="3">
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B153" s="9">
         <v>2024</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C153" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D154" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B153" s="7">
+      <c r="E154" s="3"/>
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B155" s="7">
         <v>2024</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E153" s="7"/>
-    </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="E155" s="7"/>
+    </row>
+    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B156" s="4">
         <v>2025</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D156" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E154" s="4"/>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B157" s="6">
         <v>2025</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C157" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D157" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E155" s="6"/>
-    </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B156" s="3">
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="9">
         <v>2025</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C158" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="3">
+        <v>2025</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D159" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B157" s="7">
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="7">
         <v>2025</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E157" s="7"/>
-    </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B161" s="4">
         <v>2026</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E158" s="4"/>
-    </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B162" s="6">
         <v>2026</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C162" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D162" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="6"/>
-    </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160" s="4">
-        <v>2027</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E160" s="4"/>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="6">
-        <v>2027</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" s="6"/>
-    </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="4">
-        <v>2028</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="6">
-        <v>2028</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E163" s="6"/>
+      <c r="A163" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B163" s="9">
+        <v>2026</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E163" s="9"/>
     </row>
     <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B164" s="4">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>37</v>
@@ -4685,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>38</v>
@@ -4696,71 +4710,71 @@
       <c r="E165" s="6"/>
     </row>
     <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="9">
+        <v>2027</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="4">
-        <v>2030</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="B167" s="4">
+        <v>2028</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B167" s="6">
-        <v>2030</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="B168" s="6">
+        <v>2028</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D168" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="6"/>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B168" s="4">
-        <v>2031</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E168" s="4"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="6">
-        <v>2031</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="6"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" s="9">
+        <v>2028</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B170" s="4">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>37</v>
@@ -4770,12 +4784,12 @@
       </c>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B171" s="6">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>38</v>
@@ -4785,8 +4799,158 @@
       </c>
       <c r="E171" s="6"/>
     </row>
+    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B172" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="4">
+        <v>2030</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="6">
+        <v>2030</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B175" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="4">
+        <v>2031</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2031</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B178" s="9">
+        <v>2031</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="4">
+        <v>2032</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="6">
+        <v>2032</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B181" s="9">
+        <v>2032</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E181" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E171">
+  <autoFilter ref="A1:E181">
     <sortState ref="A2:E171">
       <sortCondition ref="B1:B171"/>
     </sortState>
@@ -5622,7 +5786,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5644,7 +5808,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5666,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -5677,7 +5841,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -5688,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -5699,7 +5863,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -5710,7 +5874,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -5721,7 +5885,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -5732,7 +5896,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -5743,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5763,9 +5927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5787,7 +5949,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5869,7 +6031,7 @@
       </c>
       <c r="B14" s="3">
         <f>B2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5887,7 +6049,7 @@
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B9)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
@@ -12,16 +12,16 @@
     <sheet name="Circuits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Circuits!$A$1:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$181</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Times!$A$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Circuits!$A$1:$B$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Times!$A$1:$C$86</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="105">
   <si>
     <t>Italian Grand Prix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,30 @@
   </si>
   <si>
     <t>Las Vegas Street Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain International Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain International Circuit (Outer Layout)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakhir Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,9 +651,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Times!$A$2:$B$85</c:f>
+              <c:f>Times!$A$2:$B$86</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Italy</c:v>
@@ -833,34 +857,34 @@
                     <c:v>Austria</c:v>
                   </c:pt>
                   <c:pt idx="67">
+                    <c:v>Bahrain</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
                     <c:v>Italy</c:v>
                   </c:pt>
-                  <c:pt idx="68">
+                  <c:pt idx="69">
                     <c:v>Austria</c:v>
                   </c:pt>
-                  <c:pt idx="69">
+                  <c:pt idx="70">
                     <c:v>Italy</c:v>
                   </c:pt>
-                  <c:pt idx="70">
+                  <c:pt idx="71">
                     <c:v>United States</c:v>
                   </c:pt>
-                  <c:pt idx="71">
+                  <c:pt idx="72">
                     <c:v>Italy</c:v>
                   </c:pt>
-                  <c:pt idx="72">
+                  <c:pt idx="73">
                     <c:v>United States</c:v>
                   </c:pt>
-                  <c:pt idx="73">
+                  <c:pt idx="74">
                     <c:v>Italy</c:v>
                   </c:pt>
-                  <c:pt idx="74">
+                  <c:pt idx="75">
                     <c:v>United States</c:v>
                   </c:pt>
-                  <c:pt idx="75">
+                  <c:pt idx="76">
                     <c:v>Italy</c:v>
-                  </c:pt>
-                  <c:pt idx="76">
-                    <c:v>United States</c:v>
                   </c:pt>
                   <c:pt idx="77">
                     <c:v>United States</c:v>
@@ -881,6 +905,9 @@
                     <c:v>United States</c:v>
                   </c:pt>
                   <c:pt idx="83">
+                    <c:v>United States</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
                     <c:v>United States</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1087,54 +1114,57 @@
                     <c:v>2020</c:v>
                   </c:pt>
                   <c:pt idx="67">
-                    <c:v>2021</c:v>
+                    <c:v>2020</c:v>
                   </c:pt>
                   <c:pt idx="68">
                     <c:v>2021</c:v>
                   </c:pt>
                   <c:pt idx="69">
-                    <c:v>2022</c:v>
+                    <c:v>2021</c:v>
                   </c:pt>
                   <c:pt idx="70">
                     <c:v>2022</c:v>
                   </c:pt>
                   <c:pt idx="71">
-                    <c:v>2023</c:v>
+                    <c:v>2022</c:v>
                   </c:pt>
                   <c:pt idx="72">
                     <c:v>2023</c:v>
                   </c:pt>
                   <c:pt idx="73">
-                    <c:v>2024</c:v>
+                    <c:v>2023</c:v>
                   </c:pt>
                   <c:pt idx="74">
                     <c:v>2024</c:v>
                   </c:pt>
                   <c:pt idx="75">
-                    <c:v>2025</c:v>
+                    <c:v>2024</c:v>
                   </c:pt>
                   <c:pt idx="76">
                     <c:v>2025</c:v>
                   </c:pt>
                   <c:pt idx="77">
+                    <c:v>2025</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
                     <c:v>2026</c:v>
                   </c:pt>
-                  <c:pt idx="78">
+                  <c:pt idx="79">
                     <c:v>2027</c:v>
                   </c:pt>
-                  <c:pt idx="79">
+                  <c:pt idx="80">
                     <c:v>2028</c:v>
                   </c:pt>
-                  <c:pt idx="80">
+                  <c:pt idx="81">
                     <c:v>2029</c:v>
                   </c:pt>
-                  <c:pt idx="81">
+                  <c:pt idx="82">
                     <c:v>2030</c:v>
                   </c:pt>
-                  <c:pt idx="82">
+                  <c:pt idx="83">
                     <c:v>2031</c:v>
                   </c:pt>
-                  <c:pt idx="83">
+                  <c:pt idx="84">
                     <c:v>2032</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1143,10 +1173,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Times!$C$2:$C$85</c:f>
+              <c:f>Times!$C$2:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1364,19 +1394,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="73">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="75">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="76">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>3</c:v>
@@ -1397,6 +1427,9 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="83">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1412,11 +1445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127462088"/>
-        <c:axId val="127462480"/>
+        <c:axId val="440509944"/>
+        <c:axId val="440508376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127462088"/>
+        <c:axId val="440509944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127462480"/>
+        <c:crossAx val="440508376"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1434,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127462480"/>
+        <c:axId val="440508376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127462088"/>
+        <c:crossAx val="440509944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1530,9 +1563,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Circuits!$A$2:$A$9</c:f>
+              <c:f>Circuits!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>United States</c:v>
                 </c:pt>
@@ -1555,6 +1588,9 @@
                   <c:v>Japan</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>Bahrain</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Austria</c:v>
                 </c:pt>
               </c:strCache>
@@ -1562,10 +1598,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Circuits!$B$2:$B$9</c:f>
+              <c:f>Circuits!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -1588,6 +1624,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1603,11 +1642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127463264"/>
-        <c:axId val="127463656"/>
+        <c:axId val="440510336"/>
+        <c:axId val="440510728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127463264"/>
+        <c:axId val="440510336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127463656"/>
+        <c:crossAx val="440510728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1625,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127463656"/>
+        <c:axId val="440510728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127463264"/>
+        <c:crossAx val="440510336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1708,7 +1747,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Circuits!$B$12</c:f>
+              <c:f>Circuits!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1720,7 +1759,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Circuits!$A$13:$A$15</c:f>
+              <c:f>Circuits!$A$14:$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1737,7 +1776,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Circuits!$B$13:$B$15</c:f>
+              <c:f>Circuits!$B$14:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1748,7 +1787,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,11 +1802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127464440"/>
-        <c:axId val="127464832"/>
+        <c:axId val="440511512"/>
+        <c:axId val="440511904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127464440"/>
+        <c:axId val="440511512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127464832"/>
+        <c:crossAx val="440511904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1785,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127464832"/>
+        <c:axId val="440511904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +1835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127464440"/>
+        <c:crossAx val="440511512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1830,7 +1869,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1865,7 +1904,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1895,7 +1934,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2205,7 +2244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL181"/>
+  <dimension ref="A1:DL183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2213,7 +2252,7 @@
   <cols>
     <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="116" width="9" style="2"/>
@@ -4286,671 +4325,703 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B138" s="6">
+      <c r="A138" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B138" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B139" s="9">
+        <v>2020</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B140" s="6">
         <v>2021</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E140" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B139" s="7">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="7">
         <v>2021</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D141" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B142" s="3">
         <v>2021</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B143" s="3">
         <v>2021</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B144" s="4">
         <v>2022</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B145" s="6">
         <v>2022</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C145" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D145" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="6"/>
-    </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B144" s="3">
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B146" s="3">
         <v>2022</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C146" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D146" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B145" s="7">
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" s="7">
         <v>2022</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D147" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B148" s="4">
         <v>2023</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="D148" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="6">
-        <v>2023</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B148" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E148" s="9"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B149" s="6">
         <v>2023</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="9">
+        <v>2023</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B150" s="7">
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B152" s="7">
         <v>2023</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D152" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E150" s="7"/>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="E152" s="7"/>
+    </row>
+    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B153" s="4">
         <v>2024</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D153" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E151" s="4"/>
-    </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B154" s="6">
         <v>2024</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C154" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D154" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E152" s="6"/>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B153" s="9">
+      <c r="B155" s="9">
         <v>2024</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C155" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D155" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B154" s="3">
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" s="3">
         <v>2024</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C156" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D156" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B155" s="7">
+      <c r="E156" s="3"/>
+    </row>
+    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B157" s="7">
         <v>2024</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C157" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D157" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E155" s="7"/>
-    </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B158" s="4">
         <v>2025</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D158" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B159" s="6">
         <v>2025</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D159" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="6"/>
-    </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="9">
+      <c r="B160" s="9">
         <v>2025</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D160" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E158" s="9"/>
-    </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B159" s="3">
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B161" s="3">
         <v>2025</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C161" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D161" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B160" s="7">
+      <c r="E161" s="3"/>
+    </row>
+    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B162" s="7">
         <v>2025</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E160" s="7"/>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B163" s="4">
         <v>2026</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B164" s="6">
         <v>2026</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C164" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D164" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="6"/>
-    </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B165" s="9">
         <v>2026</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D165" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B166" s="4">
         <v>2027</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D166" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E164" s="4"/>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B167" s="6">
         <v>2027</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C167" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D167" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="6"/>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B168" s="9">
         <v>2027</v>
       </c>
-      <c r="C166" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D168" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B169" s="4">
         <v>2028</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="D169" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E167" s="4"/>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B170" s="6">
         <v>2028</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C170" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D170" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E168" s="6"/>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B171" s="9">
         <v>2028</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C171" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D171" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B172" s="4">
         <v>2029</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D172" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E170" s="4"/>
-    </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B173" s="6">
         <v>2029</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C173" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D173" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="6"/>
-    </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B174" s="9">
         <v>2029</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C174" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D174" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E172" s="9"/>
-    </row>
-    <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B175" s="4">
         <v>2030</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="D175" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E173" s="4"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B176" s="6">
         <v>2030</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C176" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D176" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="6"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B177" s="9">
         <v>2030</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C177" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D177" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E175" s="9"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B178" s="4">
         <v>2031</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D178" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E176" s="4"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B179" s="6">
         <v>2031</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C179" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D179" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="6"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B180" s="9">
         <v>2031</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C180" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D180" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E178" s="9"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B181" s="4">
         <v>2032</v>
       </c>
-      <c r="C179" s="4" t="s">
+      <c r="C181" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D179" s="4" t="s">
+      <c r="D181" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E179" s="4"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B182" s="6">
         <v>2032</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C182" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D182" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E180" s="6"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B183" s="9">
         <v>2032</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C183" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D183" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E181" s="9"/>
+      <c r="E183" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E181">
+  <autoFilter ref="A1:E183">
     <sortState ref="A2:E171">
       <sortCondition ref="B1:B171"/>
     </sortState>
@@ -4963,7 +5034,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5725,10 +5796,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -5739,7 +5810,7 @@
         <v>2021</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
@@ -5747,10 +5818,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C71" s="3">
         <v>2</v>
@@ -5761,7 +5832,7 @@
         <v>2022</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C72" s="3">
         <v>2</v>
@@ -5769,10 +5840,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73" s="3">
         <v>2</v>
@@ -5783,21 +5854,21 @@
         <v>2023</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C74" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C75" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,21 +5876,21 @@
         <v>2024</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C76" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C77" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5827,15 +5898,15 @@
         <v>2025</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C78" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -5846,7 +5917,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>7</v>
@@ -5857,7 +5928,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>7</v>
@@ -5868,7 +5939,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>7</v>
@@ -5879,7 +5950,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>7</v>
@@ -5890,7 +5961,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>7</v>
@@ -5901,7 +5972,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>7</v>
@@ -5910,8 +5981,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>2032</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C85">
+  <autoFilter ref="A1:C86">
     <sortState ref="A2:C85">
       <sortCondition ref="A1:A85"/>
     </sortState>
@@ -5925,7 +6007,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6002,60 +6084,68 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3">
-        <f>B3+B4+B5+B6+B7+B9</f>
-        <v>15</v>
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B3+B4+B5+B6+B7+B10</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <f>B2</f>
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="3">
-        <f>B8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="B16" s="3">
+        <f>B8+B9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="3">
-        <f>SUM(B2:B9)</f>
-        <v>28</v>
+      <c r="B19" s="3">
+        <f>SUM(B2:B10)</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B9">
-    <sortState ref="A2:B9">
-      <sortCondition descending="1" ref="B1:B9"/>
+  <autoFilter ref="A1:B10">
+    <sortState ref="A2:B10">
+      <sortCondition descending="1" ref="B1:B10"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
+++ b/文档/其他文档/Others/Sports/The record of some countries hold multi Grand Prixs in a year of F1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,15 +13,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Circuits!$A$1:$B$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$E$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Times!$A$1:$C$86</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="109">
   <si>
     <t>Italian Grand Prix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Las Vegas Street Circuit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Bahrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,6 +434,24 @@
   <si>
     <t>Bahrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spanish Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madrid Grand Prix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Las Vegas Strip Circuit</t>
+  </si>
+  <si>
+    <t>Madrid Street Circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circuit de Catalunya</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440509944"/>
-        <c:axId val="440508376"/>
+        <c:axId val="29429120"/>
+        <c:axId val="29439104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440509944"/>
+        <c:axId val="29429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440508376"/>
+        <c:crossAx val="29439104"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440508376"/>
+        <c:axId val="29439104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440509944"/>
+        <c:crossAx val="29429120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1486,7 +1500,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1536,7 +1549,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1642,11 +1654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440510336"/>
-        <c:axId val="440510728"/>
+        <c:axId val="30049408"/>
+        <c:axId val="30050944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440510336"/>
+        <c:axId val="30049408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,7 +1668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440510728"/>
+        <c:crossAx val="30050944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1664,7 +1676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440510728"/>
+        <c:axId val="30050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,14 +1687,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440510336"/>
+        <c:crossAx val="30049408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1732,7 +1743,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1802,11 +1812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="440511512"/>
-        <c:axId val="440511904"/>
+        <c:axId val="30079616"/>
+        <c:axId val="29819264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="440511512"/>
+        <c:axId val="30079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1826,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440511904"/>
+        <c:crossAx val="29819264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1824,7 +1834,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="440511904"/>
+        <c:axId val="29819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,14 +1845,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="440511512"/>
+        <c:crossAx val="30079616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1958,7 +1967,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2000,7 +2009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2035,7 +2044,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2244,7 +2253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DL183"/>
+  <dimension ref="A1:DL203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -4326,31 +4335,31 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B138" s="3">
         <v>2020</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B139" s="9">
         <v>2020</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>52</v>
@@ -4518,7 +4527,7 @@
         <v>2023</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>97</v>
@@ -4593,7 +4602,7 @@
         <v>2024</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>97</v>
@@ -4668,7 +4677,7 @@
         <v>2025</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>97</v>
@@ -4706,191 +4715,191 @@
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B163" s="6">
+        <v>2026</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B164" s="8">
+        <v>2026</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B165" s="4">
         <v>2026</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D165" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E163" s="4"/>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B166" s="6">
         <v>2026</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C166" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D166" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E164" s="6"/>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B167" s="9">
         <v>2026</v>
       </c>
-      <c r="C165" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D165" s="9" t="s">
+      <c r="C167" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="6">
+        <v>2027</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2027</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B170" s="4">
         <v>2027</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="D170" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="4"/>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B171" s="6">
         <v>2027</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D171" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E167" s="6"/>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B172" s="9">
         <v>2027</v>
       </c>
-      <c r="C168" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D168" s="9" t="s">
+      <c r="C172" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="4">
-        <v>2028</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E169" s="4"/>
-    </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="6">
-        <v>2028</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E170" s="6"/>
-    </row>
-    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B171" s="9">
-        <v>2028</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="4">
-        <v>2029</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E172" s="4"/>
+      <c r="E172" s="9"/>
     </row>
     <row r="173" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B173" s="6">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E173" s="6"/>
     </row>
     <row r="174" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B174" s="9">
-        <v>2029</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E174" s="9"/>
+      <c r="A174" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B174" s="8">
+        <v>2028</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B175" s="4">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>37</v>
@@ -4900,12 +4909,12 @@
       </c>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B176" s="6">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>38</v>
@@ -4915,115 +4924,415 @@
       </c>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B177" s="9">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D177" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E177" s="9"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="6">
+        <v>2029</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" s="8">
+        <v>2029</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E179" s="8"/>
+    </row>
+    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B180" s="4">
+        <v>2029</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="6">
+        <v>2029</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B182" s="9">
+        <v>2029</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="6">
+        <v>2030</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D183" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B184" s="8">
+        <v>2030</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E184" s="8"/>
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="4">
+        <v>2030</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="6">
+        <v>2030</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" s="9">
+        <v>2030</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B188" s="6">
         <v>2031</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C188" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B189" s="8">
+        <v>2031</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="4">
+        <v>2031</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D190" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E178" s="4"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B191" s="6">
         <v>2031</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C191" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D191" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E179" s="6"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B192" s="9">
         <v>2031</v>
       </c>
-      <c r="C180" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D180" s="9" t="s">
+      <c r="C192" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E180" s="9"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B193" s="6">
+        <v>2032</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B194" s="8">
+        <v>2032</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E194" s="8"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B195" s="4">
         <v>2032</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C195" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D181" s="4" t="s">
+      <c r="D195" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E181" s="4"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B196" s="6">
         <v>2032</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C196" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D196" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="6"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B197" s="9">
         <v>2032</v>
       </c>
-      <c r="C183" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D183" s="9" t="s">
+      <c r="C197" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D197" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E183" s="9"/>
+      <c r="E197" s="9"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B198" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B199" s="8">
+        <v>2033</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E199" s="8"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="6">
+        <v>2034</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B201" s="8">
+        <v>2034</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E201" s="8"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B203" s="8">
+        <v>2035</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E183">
-    <sortState ref="A2:E171">
-      <sortCondition ref="B1:B171"/>
+  <autoFilter ref="A1:E203">
+    <sortState ref="A2:E203">
+      <sortCondition ref="B1:B197"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5799,7 +6108,7 @@
         <v>2020</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -6084,7 +6393,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
